--- a/Data/EC/NIT-9004614488.xlsx
+++ b/Data/EC/NIT-9004614488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53ED4B2A-0214-41AB-BA72-4EB6EC490720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F50E052-42A7-4E41-9C19-C1DB7E54364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{911A87AE-034C-41D1-8363-EAB1A22AD018}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18EB45F5-0BB1-4DF8-BC0A-37F3B67688EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="141">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,358 +65,367 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73180526</t>
+  </si>
+  <si>
+    <t>ISMAEL MELENDEZ PEÑARANDA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>45503892</t>
   </si>
   <si>
     <t>ARLOTY ISABEL ROSALES POLO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
+    <t>1047446602</t>
+  </si>
+  <si>
+    <t>LEIDY PAOLA MORA ARENGAS</t>
+  </si>
+  <si>
+    <t>22810792</t>
+  </si>
+  <si>
+    <t>RAQUEL MARIA TORRENEGRA GONZALEZ</t>
+  </si>
+  <si>
+    <t>73193139</t>
+  </si>
+  <si>
+    <t>ALBEIRO COTTA LUNA</t>
+  </si>
+  <si>
     <t>1045674968</t>
   </si>
   <si>
     <t>SANDRA MILENA IBAÑEZ PAYARES</t>
-  </si>
-  <si>
-    <t>73193139</t>
-  </si>
-  <si>
-    <t>ALBEIRO COTTA LUNA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>22810792</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA TORRENEGRA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1047446602</t>
-  </si>
-  <si>
-    <t>LEIDY PAOLA MORA ARENGAS</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -830,7 +839,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F84E59-BC33-F016-C409-0A05B49B378E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84390DD5-4BCF-6F2F-444C-23F610CF0718}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,8 +1190,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F592AB47-4720-463E-8730-4E1BA7C24366}">
-  <dimension ref="B2:J341"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73095BC2-1752-4798-9B33-D204559BA877}">
+  <dimension ref="B2:J346"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1206,7 +1215,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1251,7 +1260,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1283,12 +1292,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10973446</v>
+        <v>11218928</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1299,17 +1308,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1336,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1359,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29120</v>
+        <v>13333</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1379,13 +1388,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1396,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1419,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1442,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1471,13 +1480,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1494,13 +1503,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1511,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1534,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1557,16 +1566,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1580,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1609,13 +1618,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1632,13 +1641,13 @@
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1649,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1672,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1695,19 +1704,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1724,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1741,16 +1750,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1764,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1793,13 +1802,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1810,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1833,16 +1842,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1862,13 +1871,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1879,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1902,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1931,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1948,16 +1957,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1971,16 +1980,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2000,13 +2009,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2017,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2046,13 +2055,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2063,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2086,16 +2095,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2109,16 +2118,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2138,13 +2147,13 @@
         <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2155,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2184,13 +2193,13 @@
         <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2201,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2224,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2253,13 +2262,13 @@
         <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2270,16 +2279,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2293,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2316,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2339,19 +2348,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2368,13 +2377,13 @@
         <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2391,13 +2400,13 @@
         <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2408,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2431,16 +2440,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2454,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2483,13 +2492,13 @@
         <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2500,16 +2509,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2523,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2546,16 +2555,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2575,13 +2584,13 @@
         <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2592,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2615,16 +2624,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2644,13 +2653,13 @@
         <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2667,13 +2676,13 @@
         <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2684,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2707,16 +2716,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2730,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2759,13 +2768,13 @@
         <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F77" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2776,19 +2785,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2799,16 +2808,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F79" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2822,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F80" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2851,13 +2860,13 @@
         <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F81" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2868,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F82" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2891,16 +2900,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F83" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2920,13 +2929,13 @@
         <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F84" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2943,13 +2952,13 @@
         <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2960,19 +2969,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2983,16 +2992,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -3006,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F88" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3035,13 +3044,13 @@
         <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F89" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3052,19 +3061,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3081,13 +3090,13 @@
         <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3098,19 +3107,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3121,16 +3130,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F93" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3150,13 +3159,13 @@
         <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F94" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3167,19 +3176,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F95" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3190,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3213,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F97" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3242,13 +3251,13 @@
         <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F98" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3259,13 +3268,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3282,16 +3291,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3311,13 +3320,13 @@
         <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F101" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G101" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3328,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F102" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G102" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3357,13 +3366,13 @@
         <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F103" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G103" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3374,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3397,19 +3406,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F105" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G105" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3420,19 +3429,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F106" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G106" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3449,13 +3458,13 @@
         <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F107" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G107" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3466,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3489,19 +3498,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F109" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G109" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3518,13 +3527,13 @@
         <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F110" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G110" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3535,16 +3544,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3558,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F112" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G112" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3587,13 +3596,13 @@
         <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F113" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G113" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3604,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3627,16 +3636,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3656,13 +3665,13 @@
         <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F116" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G116" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3673,19 +3682,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F117" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G117" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3702,13 +3711,13 @@
         <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F118" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G118" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3719,19 +3728,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F119" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G119" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3742,16 +3751,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3771,13 +3780,13 @@
         <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F121" s="18">
-        <v>31400</v>
+        <v>29120</v>
       </c>
       <c r="G121" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3788,19 +3797,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F122" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G122" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3811,16 +3820,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3834,19 +3843,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F124" s="18">
-        <v>37040</v>
+        <v>29120</v>
       </c>
       <c r="G124" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3857,16 +3866,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3880,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F126" s="18">
-        <v>31400</v>
+        <v>88741</v>
       </c>
       <c r="G126" s="18">
-        <v>785000</v>
+        <v>2218530</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3903,19 +3912,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>88741</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>2218530</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3926,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F128" s="18">
-        <v>37040</v>
+        <v>88741</v>
       </c>
       <c r="G128" s="18">
-        <v>890000</v>
+        <v>2218530</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3949,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F129" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G129" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3972,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>76559</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>1913976</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3995,19 +4004,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F131" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G131" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4018,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F132" s="18">
-        <v>37040</v>
+        <v>76559</v>
       </c>
       <c r="G132" s="18">
-        <v>890000</v>
+        <v>1913976</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4041,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>76559</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>1913976</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4064,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F134" s="18">
-        <v>37040</v>
+        <v>76559</v>
       </c>
       <c r="G134" s="18">
-        <v>890000</v>
+        <v>1913976</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4087,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F135" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G135" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4110,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F136" s="18">
-        <v>37040</v>
+        <v>76559</v>
       </c>
       <c r="G136" s="18">
-        <v>890000</v>
+        <v>1913976</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4133,19 +4142,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F137" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G137" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4156,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4179,19 +4188,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4202,19 +4211,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F140" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G140" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4225,16 +4234,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F141" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G141" s="18">
         <v>890000</v>
@@ -4248,19 +4257,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F142" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G142" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4271,16 +4280,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F143" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G143" s="18">
         <v>890000</v>
@@ -4294,19 +4303,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4317,19 +4326,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4340,16 +4349,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F146" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G146" s="18">
         <v>890000</v>
@@ -4363,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F147" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G147" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4386,19 +4395,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F148" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G148" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4409,19 +4418,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4432,16 +4441,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F150" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G150" s="18">
         <v>890000</v>
@@ -4455,19 +4464,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F151" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G151" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4478,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4501,16 +4510,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F153" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G153" s="18">
         <v>890000</v>
@@ -4524,16 +4533,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F154" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G154" s="18">
         <v>890000</v>
@@ -4547,19 +4556,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F155" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G155" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4570,19 +4579,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4593,19 +4602,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F157" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G157" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4616,16 +4625,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F158" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G158" s="18">
         <v>890000</v>
@@ -4639,19 +4648,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4662,19 +4671,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4685,16 +4694,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F161" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G161" s="18">
         <v>890000</v>
@@ -4708,19 +4717,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F162" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G162" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4731,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4754,16 +4763,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F164" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G164" s="18">
         <v>890000</v>
@@ -4777,19 +4786,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F165" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G165" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4800,19 +4809,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F166" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G166" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4823,16 +4832,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F167" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G167" s="18">
         <v>890000</v>
@@ -4846,19 +4855,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4869,19 +4878,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4892,16 +4901,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F170" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G170" s="18">
         <v>890000</v>
@@ -4915,19 +4924,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F171" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G171" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4938,13 +4947,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F172" s="18">
         <v>35600</v>
@@ -4961,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F173" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G173" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4984,19 +4993,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G174" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5007,19 +5016,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F175" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G175" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5030,19 +5039,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F176" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5053,13 +5062,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F177" s="18">
         <v>35600</v>
@@ -5076,19 +5085,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5099,13 +5108,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F179" s="18">
         <v>35600</v>
@@ -5122,19 +5131,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F180" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G180" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5145,19 +5154,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F181" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G181" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5168,13 +5177,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F182" s="18">
         <v>35600</v>
@@ -5191,19 +5200,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F183" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G183" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5214,19 +5223,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F184" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G184" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5237,19 +5246,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F185" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G185" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5260,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F186" s="18">
         <v>35600</v>
@@ -5283,19 +5292,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F187" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5306,19 +5315,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F188" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G188" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5329,13 +5338,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F189" s="18">
         <v>35600</v>
@@ -5352,19 +5361,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F190" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G190" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5375,19 +5384,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F191" s="18">
-        <v>31249</v>
+        <v>35600</v>
       </c>
       <c r="G191" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5398,13 +5407,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F192" s="18">
         <v>35600</v>
@@ -5421,13 +5430,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F193" s="18">
         <v>35600</v>
@@ -5444,19 +5453,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F194" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G194" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5467,19 +5476,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G195" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5490,16 +5499,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F196" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G196" s="18">
         <v>890000</v>
@@ -5513,19 +5522,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F197" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G197" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5536,19 +5545,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G198" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5559,19 +5568,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5582,19 +5591,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F200" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G200" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5605,16 +5614,16 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F201" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G201" s="18">
         <v>890000</v>
@@ -5628,19 +5637,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5651,19 +5660,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F203" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G203" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5674,16 +5683,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F204" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G204" s="18">
         <v>890000</v>
@@ -5697,19 +5706,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F205" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G205" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5720,16 +5729,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F206" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G206" s="18">
         <v>890000</v>
@@ -5743,19 +5752,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F207" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G207" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5766,19 +5775,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F208" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G208" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5789,19 +5798,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F209" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G209" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5812,16 +5821,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F210" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G210" s="18">
         <v>890000</v>
@@ -5835,19 +5844,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G211" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5858,19 +5867,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F212" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G212" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5881,16 +5890,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F213" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G213" s="18">
         <v>890000</v>
@@ -5904,19 +5913,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G214" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5927,19 +5936,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F215" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G215" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5950,16 +5959,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F216" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G216" s="18">
         <v>890000</v>
@@ -5973,19 +5982,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F217" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G217" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5996,16 +6005,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F218" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G218" s="18">
         <v>890000</v>
@@ -6019,19 +6028,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G219" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6042,16 +6051,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F220" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G220" s="18">
         <v>890000</v>
@@ -6065,19 +6074,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F221" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G221" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6088,19 +6097,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F222" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G222" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6111,19 +6120,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G223" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6134,16 +6143,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F224" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G224" s="18">
         <v>890000</v>
@@ -6157,19 +6166,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F225" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G225" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6180,19 +6189,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G226" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6203,19 +6212,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F227" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G227" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6226,16 +6235,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F228" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G228" s="18">
         <v>890000</v>
@@ -6249,16 +6258,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F229" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G229" s="18">
         <v>890000</v>
@@ -6272,19 +6281,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6295,19 +6304,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F231" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G231" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6318,16 +6327,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F232" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G232" s="18">
         <v>890000</v>
@@ -6341,19 +6350,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F233" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G233" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6364,19 +6373,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F234" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G234" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6387,19 +6396,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F235" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G235" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6410,16 +6419,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F236" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G236" s="18">
         <v>890000</v>
@@ -6433,19 +6442,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F237" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G237" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6456,19 +6465,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F238" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G238" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6479,16 +6488,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F239" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G239" s="18">
         <v>890000</v>
@@ -6502,19 +6511,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F240" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G240" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6525,16 +6534,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F241" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G241" s="18">
         <v>890000</v>
@@ -6548,19 +6557,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6571,19 +6580,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F243" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G243" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6594,16 +6603,16 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F244" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G244" s="18">
         <v>890000</v>
@@ -6617,19 +6626,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F245" s="18">
-        <v>31400</v>
+        <v>37040</v>
       </c>
       <c r="G245" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6640,19 +6649,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F246" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G246" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6663,19 +6672,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F247" s="18">
-        <v>35600</v>
+        <v>24074</v>
       </c>
       <c r="G247" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6686,19 +6695,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F248" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G248" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6709,13 +6718,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F249" s="18">
         <v>31400</v>
@@ -6732,13 +6741,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="F250" s="18">
         <v>31400</v>
@@ -6755,19 +6764,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F251" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G251" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6778,19 +6787,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F252" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G252" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6801,19 +6810,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F253" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G253" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6824,13 +6833,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="F254" s="18">
         <v>31400</v>
@@ -6847,19 +6856,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F255" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G255" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6870,19 +6879,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F256" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G256" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6893,19 +6902,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F257" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G257" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6916,13 +6925,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F258" s="18">
         <v>31400</v>
@@ -6939,13 +6948,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F259" s="18">
         <v>31400</v>
@@ -6962,19 +6971,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="F260" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G260" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6985,19 +6994,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F261" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G261" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7008,13 +7017,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="F262" s="18">
         <v>31400</v>
@@ -7031,19 +7040,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F263" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G263" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7054,19 +7063,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F264" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G264" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7077,19 +7086,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F265" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G265" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7100,19 +7109,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="F266" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G266" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7123,13 +7132,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F267" s="18">
         <v>31400</v>
@@ -7146,13 +7155,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F268" s="18">
         <v>31400</v>
@@ -7169,19 +7178,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F269" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G269" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7192,19 +7201,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F270" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G270" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7215,19 +7224,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F271" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G271" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7238,13 +7247,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F272" s="18">
         <v>31400</v>
@@ -7261,19 +7270,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F273" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G273" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7284,13 +7293,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F274" s="18">
         <v>31400</v>
@@ -7307,19 +7316,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F275" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G275" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7330,19 +7339,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F276" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G276" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7353,19 +7362,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F277" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G277" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7376,13 +7385,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F278" s="18">
         <v>31400</v>
@@ -7399,19 +7408,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F279" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G279" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7422,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F280" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G280" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7445,19 +7454,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F281" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G281" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7468,13 +7477,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F282" s="18">
         <v>31400</v>
@@ -7491,13 +7500,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F283" s="18">
         <v>31400</v>
@@ -7514,19 +7523,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F284" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G284" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7537,19 +7546,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F285" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G285" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7560,19 +7569,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7583,13 +7592,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F287" s="18">
         <v>31400</v>
@@ -7606,19 +7615,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F288" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G288" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7629,19 +7638,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F289" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G289" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7652,13 +7661,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F290" s="18">
         <v>31400</v>
@@ -7675,19 +7684,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F291" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G291" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7698,13 +7707,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F292" s="18">
         <v>31400</v>
@@ -7721,19 +7730,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F293" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G293" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7744,19 +7753,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F294" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G294" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7767,16 +7776,16 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F295" s="18">
-        <v>24074</v>
+        <v>31400</v>
       </c>
       <c r="G295" s="18">
         <v>785000</v>
@@ -7790,19 +7799,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F296" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G296" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7813,19 +7822,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F297" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7836,19 +7845,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F298" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G298" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7859,19 +7868,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F299" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G299" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7882,19 +7891,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F300" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G300" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7905,19 +7914,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F301" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G301" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7928,19 +7937,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F302" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G302" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7951,19 +7960,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F303" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G303" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7974,19 +7983,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F304" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G304" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7997,19 +8006,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F305" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G305" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8020,19 +8029,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F306" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G306" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8043,19 +8052,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F307" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G307" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8066,19 +8075,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F308" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G308" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8089,19 +8098,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F309" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G309" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8112,19 +8121,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F310" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G310" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8135,19 +8144,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F311" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G311" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8158,19 +8167,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F312" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G312" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8181,19 +8190,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F313" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G313" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8204,19 +8213,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F314" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G314" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8227,19 +8236,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F315" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G315" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8250,19 +8259,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F316" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G316" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8273,19 +8282,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8296,19 +8305,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F318" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G318" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8319,19 +8328,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F319" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G319" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8342,19 +8351,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F320" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G320" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8365,19 +8374,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F321" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G321" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8388,19 +8397,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F322" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G322" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8411,19 +8420,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F323" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G323" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8434,19 +8443,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F324" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G324" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8457,19 +8466,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F325" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G325" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8480,19 +8489,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F326" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G326" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8503,19 +8512,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F327" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G327" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8526,19 +8535,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F328" s="18">
-        <v>88741</v>
+        <v>31400</v>
       </c>
       <c r="G328" s="18">
-        <v>2218530</v>
+        <v>785000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8549,19 +8558,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F329" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G329" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8572,19 +8581,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F330" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G330" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8595,19 +8604,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F331" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G331" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8618,19 +8627,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F332" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G332" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8641,19 +8650,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F333" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G333" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8664,75 +8673,190 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F334" s="18">
-        <v>88741</v>
+        <v>31400</v>
       </c>
       <c r="G334" s="18">
-        <v>2218530</v>
+        <v>785000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
       <c r="J334" s="20"/>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C335" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D335" s="23" t="s">
+      <c r="B335" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E335" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F335" s="24">
-        <v>76559</v>
-      </c>
-      <c r="G335" s="24">
-        <v>1913976</v>
-      </c>
-      <c r="H335" s="25"/>
-      <c r="I335" s="25"/>
-      <c r="J335" s="26"/>
+      <c r="F335" s="18">
+        <v>31400</v>
+      </c>
+      <c r="G335" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="20"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B336" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F336" s="18">
+        <v>31400</v>
+      </c>
+      <c r="G336" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="20"/>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B337" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F337" s="18">
+        <v>31400</v>
+      </c>
+      <c r="G337" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H337" s="19"/>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B338" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D338" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E338" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F338" s="18">
+        <v>31400</v>
+      </c>
+      <c r="G338" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H338" s="19"/>
+      <c r="I338" s="19"/>
+      <c r="J338" s="20"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B339" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E339" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F339" s="18">
+        <v>31400</v>
+      </c>
+      <c r="G339" s="18">
+        <v>785000</v>
+      </c>
+      <c r="H339" s="19"/>
+      <c r="I339" s="19"/>
+      <c r="J339" s="20"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C340" s="32"/>
-      <c r="H340" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C341" s="32"/>
-      <c r="H341" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
+      <c r="B340" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D340" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E340" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F340" s="24">
+        <v>31400</v>
+      </c>
+      <c r="G340" s="24">
+        <v>785000</v>
+      </c>
+      <c r="H340" s="25"/>
+      <c r="I340" s="25"/>
+      <c r="J340" s="26"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C345" s="32"/>
+      <c r="H345" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C346" s="32"/>
+      <c r="H346" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="H341:J341"/>
-    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="H346:J346"/>
+    <mergeCell ref="H345:J345"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004614488.xlsx
+++ b/Data/EC/NIT-9004614488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F50E052-42A7-4E41-9C19-C1DB7E54364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92981760-24B4-4B7F-9ED5-9CF5868CB24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18EB45F5-0BB1-4DF8-BC0A-37F3B67688EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB70A331-DF69-4EC0-974F-1216D64EC953}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="140">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,367 +65,364 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73180526</t>
-  </si>
-  <si>
-    <t>ISMAEL MELENDEZ PEÑARANDA</t>
+    <t>45503892</t>
+  </si>
+  <si>
+    <t>ARLOTY ISABEL ROSALES POLO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73193139</t>
+  </si>
+  <si>
+    <t>ALBEIRO COTTA LUNA</t>
+  </si>
+  <si>
+    <t>1045674968</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA IBAÑEZ PAYARES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
   </si>
   <si>
     <t>2302</t>
   </si>
   <si>
-    <t>45503892</t>
-  </si>
-  <si>
-    <t>ARLOTY ISABEL ROSALES POLO</t>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>22810792</t>
+  </si>
+  <si>
+    <t>RAQUEL MARIA TORRENEGRA GONZALEZ</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1047446602</t>
+  </si>
+  <si>
+    <t>LEIDY PAOLA MORA ARENGAS</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047446602</t>
-  </si>
-  <si>
-    <t>LEIDY PAOLA MORA ARENGAS</t>
-  </si>
-  <si>
-    <t>22810792</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA TORRENEGRA GONZALEZ</t>
-  </si>
-  <si>
-    <t>73193139</t>
-  </si>
-  <si>
-    <t>ALBEIRO COTTA LUNA</t>
-  </si>
-  <si>
-    <t>1045674968</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA IBAÑEZ PAYARES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +521,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -537,9 +536,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -739,23 +736,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,10 +780,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +836,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84390DD5-4BCF-6F2F-444C-23F610CF0718}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E7709F-A145-4EB7-FDB4-D1A2C23E5619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73095BC2-1752-4798-9B33-D204559BA877}">
-  <dimension ref="B2:J346"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8733CC56-98DC-4108-B157-18AF562006CA}">
+  <dimension ref="B2:J349"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1215,7 +1212,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1260,7 +1257,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1292,12 +1289,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>11218928</v>
+        <v>11437744</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1308,17 +1305,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1345,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1368,10 +1365,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>13333</v>
+        <v>29120</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1388,13 +1385,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1405,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1428,16 +1425,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1457,13 +1454,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1474,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1497,16 +1494,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1526,13 +1523,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1543,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1566,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1595,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1612,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1635,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1664,13 +1661,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1681,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1704,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1733,13 +1730,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1750,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1773,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1802,13 +1799,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1819,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1842,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1871,13 +1868,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1888,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1911,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1940,13 +1937,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1957,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1980,16 +1977,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2009,13 +2006,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2026,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2049,16 +2046,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2078,13 +2075,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2095,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2118,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2147,13 +2144,13 @@
         <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2164,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2187,16 +2184,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2216,13 +2213,13 @@
         <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2233,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2256,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2285,13 +2282,13 @@
         <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2302,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2325,16 +2322,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2354,13 +2351,13 @@
         <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2371,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2394,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2423,13 +2420,13 @@
         <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2440,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2463,16 +2460,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2492,13 +2489,13 @@
         <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2509,19 +2506,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2532,16 +2529,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2561,13 +2558,13 @@
         <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2578,19 +2575,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2601,16 +2598,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2630,13 +2627,13 @@
         <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2647,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2670,16 +2667,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2699,13 +2696,13 @@
         <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2716,19 +2713,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2739,16 +2736,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2768,13 +2765,13 @@
         <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2785,19 +2782,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2808,16 +2805,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2837,13 +2834,13 @@
         <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2854,19 +2851,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2877,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2906,13 +2903,13 @@
         <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2923,19 +2920,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2946,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2975,13 +2972,13 @@
         <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2992,19 +2989,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3015,16 +3012,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3044,13 +3041,13 @@
         <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3061,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3084,16 +3081,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29120</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3113,13 +3110,13 @@
         <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3130,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3153,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3182,13 +3179,13 @@
         <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3199,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3222,13 +3219,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3251,13 +3248,13 @@
         <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>37040</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3268,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>31400</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3291,16 +3288,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3320,13 +3317,13 @@
         <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3337,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F102" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3360,16 +3357,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F103" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3389,13 +3386,13 @@
         <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3406,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3429,16 +3426,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3458,13 +3455,13 @@
         <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3475,19 +3472,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3498,16 +3495,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3527,13 +3524,13 @@
         <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3544,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F111" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3567,16 +3564,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F112" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3596,13 +3593,13 @@
         <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3613,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F114" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3636,16 +3633,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3665,13 +3662,13 @@
         <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3682,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3705,16 +3702,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3734,13 +3731,13 @@
         <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3751,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3774,16 +3771,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3803,13 +3800,13 @@
         <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3820,19 +3817,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>29120</v>
+        <v>31400</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>785000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3843,16 +3840,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F124" s="18">
-        <v>29120</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3872,13 +3869,13 @@
         <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F125" s="18">
-        <v>29120</v>
+        <v>37040</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>890000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3889,19 +3886,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F126" s="18">
-        <v>88741</v>
+        <v>31400</v>
       </c>
       <c r="G126" s="18">
-        <v>2218530</v>
+        <v>785000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3912,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
-        <v>88741</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>2218530</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3935,19 +3932,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F128" s="18">
-        <v>88741</v>
+        <v>37040</v>
       </c>
       <c r="G128" s="18">
-        <v>2218530</v>
+        <v>890000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3958,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F129" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G129" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3981,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F130" s="18">
-        <v>76559</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>1913976</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4004,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>76559</v>
+        <v>37040</v>
       </c>
       <c r="G131" s="18">
-        <v>1913976</v>
+        <v>890000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4027,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F132" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G132" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4050,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F133" s="18">
-        <v>76559</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>1913976</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4073,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F134" s="18">
-        <v>76559</v>
+        <v>37040</v>
       </c>
       <c r="G134" s="18">
-        <v>1913976</v>
+        <v>890000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4096,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F135" s="18">
-        <v>76559</v>
+        <v>31400</v>
       </c>
       <c r="G135" s="18">
-        <v>1913976</v>
+        <v>785000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4119,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
-        <v>76559</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>1913976</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4142,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
-        <v>76559</v>
+        <v>37040</v>
       </c>
       <c r="G137" s="18">
-        <v>1913976</v>
+        <v>890000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4165,19 +4162,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G138" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4188,19 +4185,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F139" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4211,16 +4208,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F140" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G140" s="18">
         <v>890000</v>
@@ -4234,19 +4231,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G141" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4257,19 +4254,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4280,16 +4277,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F143" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G143" s="18">
         <v>890000</v>
@@ -4303,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G144" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4326,19 +4323,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F145" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4349,16 +4346,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G146" s="18">
         <v>890000</v>
@@ -4372,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G147" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4395,19 +4392,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F148" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4418,16 +4415,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F149" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G149" s="18">
         <v>890000</v>
@@ -4441,19 +4438,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G150" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4464,19 +4461,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F151" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4487,16 +4484,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F152" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G152" s="18">
         <v>890000</v>
@@ -4510,19 +4507,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G153" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4533,19 +4530,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F154" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4556,16 +4553,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F155" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G155" s="18">
         <v>890000</v>
@@ -4579,19 +4576,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G156" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4602,19 +4599,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F157" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4625,16 +4622,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F158" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G158" s="18">
         <v>890000</v>
@@ -4648,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F159" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G159" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4671,19 +4668,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F160" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4694,16 +4691,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F161" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G161" s="18">
         <v>890000</v>
@@ -4717,19 +4714,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F162" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G162" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4740,19 +4737,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F163" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4763,16 +4760,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F164" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G164" s="18">
         <v>890000</v>
@@ -4786,19 +4783,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F165" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G165" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4809,19 +4806,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F166" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4832,16 +4829,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F167" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G167" s="18">
         <v>890000</v>
@@ -4855,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F168" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G168" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4878,19 +4875,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F169" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4901,16 +4898,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F170" s="18">
-        <v>35600</v>
+        <v>37040</v>
       </c>
       <c r="G170" s="18">
         <v>890000</v>
@@ -4924,19 +4921,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F171" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G171" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4947,19 +4944,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F172" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4970,13 +4967,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F173" s="18">
         <v>35600</v>
@@ -4993,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F174" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G174" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5016,19 +5013,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F175" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5039,13 +5036,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F176" s="18">
         <v>35600</v>
@@ -5062,19 +5059,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F177" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G177" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5085,19 +5082,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F178" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5108,13 +5105,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F179" s="18">
         <v>35600</v>
@@ -5131,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F180" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G180" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5154,19 +5151,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F181" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5177,13 +5174,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F182" s="18">
         <v>35600</v>
@@ -5200,19 +5197,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F183" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G183" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5223,19 +5220,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F184" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5246,13 +5243,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F185" s="18">
         <v>35600</v>
@@ -5269,19 +5266,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F186" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G186" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5292,19 +5289,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F187" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5315,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F188" s="18">
         <v>35600</v>
@@ -5338,19 +5335,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F189" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G189" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5361,19 +5358,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F190" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5384,13 +5381,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F191" s="18">
         <v>35600</v>
@@ -5407,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F192" s="18">
-        <v>35600</v>
+        <v>31400</v>
       </c>
       <c r="G192" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5430,19 +5427,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F193" s="18">
-        <v>35600</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5453,13 +5450,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F194" s="18">
         <v>35600</v>
@@ -5476,19 +5473,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F195" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G195" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5499,19 +5496,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F196" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5522,16 +5519,16 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F197" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G197" s="18">
         <v>890000</v>
@@ -5545,19 +5542,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F198" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G198" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5568,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F199" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5591,16 +5588,16 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F200" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G200" s="18">
         <v>890000</v>
@@ -5614,19 +5611,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F201" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G201" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5637,19 +5634,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F202" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5660,16 +5657,16 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F203" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G203" s="18">
         <v>890000</v>
@@ -5683,19 +5680,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F204" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G204" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5706,19 +5703,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F205" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5729,16 +5726,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F206" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G206" s="18">
         <v>890000</v>
@@ -5752,19 +5749,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F207" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G207" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5775,19 +5772,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F208" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5798,16 +5795,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F209" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G209" s="18">
         <v>890000</v>
@@ -5821,19 +5818,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F210" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G210" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5844,19 +5841,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F211" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5867,16 +5864,16 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F212" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G212" s="18">
         <v>890000</v>
@@ -5890,19 +5887,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F213" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G213" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5913,19 +5910,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F214" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5936,16 +5933,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F215" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G215" s="18">
         <v>890000</v>
@@ -5959,19 +5956,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F216" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G216" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5982,19 +5979,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F217" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6005,16 +6002,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F218" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G218" s="18">
         <v>890000</v>
@@ -6028,19 +6025,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F219" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G219" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6051,19 +6048,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F220" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6074,16 +6071,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F221" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G221" s="18">
         <v>890000</v>
@@ -6097,19 +6094,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F222" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G222" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6120,19 +6117,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F223" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6143,16 +6140,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F224" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G224" s="18">
         <v>890000</v>
@@ -6166,19 +6163,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F225" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G225" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6189,19 +6186,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F226" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6212,16 +6209,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F227" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G227" s="18">
         <v>890000</v>
@@ -6235,19 +6232,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F228" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G228" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6258,19 +6255,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F229" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6281,16 +6278,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F230" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G230" s="18">
         <v>890000</v>
@@ -6304,19 +6301,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F231" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G231" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6327,19 +6324,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F232" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6350,16 +6347,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F233" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G233" s="18">
         <v>890000</v>
@@ -6373,19 +6370,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F234" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G234" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6396,19 +6393,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F235" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6419,16 +6416,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F236" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G236" s="18">
         <v>890000</v>
@@ -6442,19 +6439,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F237" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G237" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6465,19 +6462,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F238" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6488,16 +6485,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F239" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G239" s="18">
         <v>890000</v>
@@ -6511,19 +6508,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F240" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G240" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6534,19 +6531,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F241" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6557,16 +6554,16 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F242" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G242" s="18">
         <v>890000</v>
@@ -6580,19 +6577,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F243" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G243" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6603,19 +6600,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F244" s="18">
-        <v>37040</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>890000</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6626,16 +6623,16 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F245" s="18">
-        <v>37040</v>
+        <v>35600</v>
       </c>
       <c r="G245" s="18">
         <v>890000</v>
@@ -6649,19 +6646,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F246" s="18">
-        <v>37040</v>
+        <v>31400</v>
       </c>
       <c r="G246" s="18">
-        <v>890000</v>
+        <v>785000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6672,19 +6669,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F247" s="18">
-        <v>24074</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6695,19 +6692,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F248" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G248" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6718,13 +6715,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F249" s="18">
         <v>31400</v>
@@ -6741,19 +6738,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F250" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6764,19 +6761,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F251" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G251" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6787,13 +6784,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="F252" s="18">
         <v>31400</v>
@@ -6810,19 +6807,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F253" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6833,19 +6830,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F254" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G254" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6856,13 +6853,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F255" s="18">
         <v>31400</v>
@@ -6879,19 +6876,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F256" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6902,19 +6899,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F257" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G257" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6925,13 +6922,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F258" s="18">
         <v>31400</v>
@@ -6948,19 +6945,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F259" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6971,19 +6968,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F260" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G260" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6994,13 +6991,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F261" s="18">
         <v>31400</v>
@@ -7017,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F262" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7040,19 +7037,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F263" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G263" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7063,13 +7060,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F264" s="18">
         <v>31400</v>
@@ -7086,19 +7083,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F265" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7109,19 +7106,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F266" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G266" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7132,13 +7129,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F267" s="18">
         <v>31400</v>
@@ -7155,19 +7152,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F268" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7178,19 +7175,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F269" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G269" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7201,13 +7198,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F270" s="18">
         <v>31400</v>
@@ -7224,19 +7221,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F271" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7247,19 +7244,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F272" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G272" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7270,13 +7267,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F273" s="18">
         <v>31400</v>
@@ -7293,19 +7290,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F274" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7316,19 +7313,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F275" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G275" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7339,13 +7336,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F276" s="18">
         <v>31400</v>
@@ -7362,19 +7359,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F277" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7385,19 +7382,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F278" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G278" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7408,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F279" s="18">
         <v>31400</v>
@@ -7431,19 +7428,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F280" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G280" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7454,19 +7451,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F281" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G281" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7477,13 +7474,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F282" s="18">
         <v>31400</v>
@@ -7500,19 +7497,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F283" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G283" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7523,19 +7520,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F284" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G284" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7546,13 +7543,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F285" s="18">
         <v>31400</v>
@@ -7569,19 +7566,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F286" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7592,19 +7589,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F287" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G287" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7615,13 +7612,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F288" s="18">
         <v>31400</v>
@@ -7638,19 +7635,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F289" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7661,19 +7658,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="F290" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G290" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7684,13 +7681,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F291" s="18">
         <v>31400</v>
@@ -7707,19 +7704,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F292" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G292" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7730,19 +7727,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F293" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G293" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7753,13 +7750,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F294" s="18">
         <v>31400</v>
@@ -7776,19 +7773,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F295" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G295" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7799,19 +7796,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F296" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G296" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7822,16 +7819,16 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F297" s="18">
-        <v>31400</v>
+        <v>24074</v>
       </c>
       <c r="G297" s="18">
         <v>785000</v>
@@ -7845,19 +7842,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F298" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7868,19 +7865,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F299" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G299" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7891,19 +7888,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F300" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G300" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7914,19 +7911,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="F301" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G301" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7937,19 +7934,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F302" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G302" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7960,19 +7957,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F303" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G303" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7983,19 +7980,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F304" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G304" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8006,19 +8003,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F305" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G305" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8029,19 +8026,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F306" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8052,19 +8049,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F307" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G307" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8075,19 +8072,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F308" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G308" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8098,19 +8095,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F309" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G309" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8121,19 +8118,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F310" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G310" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8144,19 +8141,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F311" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G311" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8167,19 +8164,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F312" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G312" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8190,19 +8187,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F313" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G313" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8213,19 +8210,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F314" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G314" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8236,19 +8233,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F315" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G315" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8259,19 +8256,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F316" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8282,19 +8279,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F317" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G317" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8305,19 +8302,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F318" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G318" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8328,19 +8325,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F319" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8351,19 +8348,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F320" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G320" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8374,19 +8371,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F321" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G321" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8397,19 +8394,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F322" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G322" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8420,19 +8417,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F323" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G323" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8443,19 +8440,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F324" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G324" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8466,19 +8463,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F325" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G325" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8489,19 +8486,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F326" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G326" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8512,19 +8509,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F327" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G327" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8535,19 +8532,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F328" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G328" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8558,19 +8555,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F329" s="18">
-        <v>31400</v>
+        <v>88741</v>
       </c>
       <c r="G329" s="18">
-        <v>785000</v>
+        <v>2218530</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8581,19 +8578,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F330" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G330" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8604,19 +8601,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F331" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G331" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8627,19 +8624,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F332" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8650,19 +8647,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F333" s="18">
-        <v>31400</v>
+        <v>88741</v>
       </c>
       <c r="G333" s="18">
-        <v>785000</v>
+        <v>2218530</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8673,19 +8670,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F334" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G334" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8696,19 +8693,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F335" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G335" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8719,19 +8716,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F336" s="18">
-        <v>31400</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
-        <v>785000</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8742,19 +8739,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F337" s="18">
-        <v>31400</v>
+        <v>88741</v>
       </c>
       <c r="G337" s="18">
-        <v>785000</v>
+        <v>2218530</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8765,19 +8762,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F338" s="18">
-        <v>31400</v>
+        <v>76559</v>
       </c>
       <c r="G338" s="18">
-        <v>785000</v>
+        <v>1913976</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8788,75 +8785,144 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F339" s="18">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="G339" s="18">
-        <v>785000</v>
+        <v>890000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
       <c r="J339" s="20"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="22" t="s">
+      <c r="B340" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D340" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E340" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F340" s="24">
-        <v>31400</v>
-      </c>
-      <c r="G340" s="24">
-        <v>785000</v>
-      </c>
-      <c r="H340" s="25"/>
-      <c r="I340" s="25"/>
-      <c r="J340" s="26"/>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B345" s="32" t="s">
+      <c r="F340" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G340" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H340" s="19"/>
+      <c r="I340" s="19"/>
+      <c r="J340" s="20"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B341" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D341" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F341" s="18">
+        <v>88741</v>
+      </c>
+      <c r="G341" s="18">
+        <v>2218530</v>
+      </c>
+      <c r="H341" s="19"/>
+      <c r="I341" s="19"/>
+      <c r="J341" s="20"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B342" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D342" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F342" s="18">
+        <v>76559</v>
+      </c>
+      <c r="G342" s="18">
+        <v>1913976</v>
+      </c>
+      <c r="H342" s="19"/>
+      <c r="I342" s="19"/>
+      <c r="J342" s="20"/>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B343" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F343" s="24">
+        <v>35600</v>
+      </c>
+      <c r="G343" s="24">
+        <v>890000</v>
+      </c>
+      <c r="H343" s="25"/>
+      <c r="I343" s="25"/>
+      <c r="J343" s="26"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B348" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C348" s="32"/>
+      <c r="H348" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B349" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C349" s="32"/>
+      <c r="H349" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C345" s="32"/>
-      <c r="H345" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B346" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C346" s="32"/>
-      <c r="H346" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="H346:J346"/>
-    <mergeCell ref="H345:J345"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="H349:J349"/>
+    <mergeCell ref="H348:J348"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
